--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1752842.823714945</v>
+        <v>1798182.292938703</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484438</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6148692.149158493</v>
+        <v>6228921.512155704</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>327.2879775827831</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>52.0879369018563</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>145.0187003691316</v>
       </c>
       <c r="V4" t="n">
-        <v>216.2017488798277</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>373.4383368904548</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>191.0995057961804</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.4594889613466</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>84.29140345193706</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1145,7 +1145,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>313.4423583424371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>128.5474889681989</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>162.9070982917623</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>84.57525409799892</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>147.352527530992</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29.10461178738926</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>43.48898701015912</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.1921297287219</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946039</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436945</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>333.8572228564819</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>14.14416275345368</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>98.73120706589806</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>99.28616603324286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2564,7 +2564,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735226124</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>105.5504749248104</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3472,7 +3472,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,10 +3487,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.01098805494587</v>
+        <v>185.622538481805</v>
       </c>
     </row>
     <row r="38">
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>35.47248331510154</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,13 +3752,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>308.1804714222866</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>99.28616603324308</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3961,10 +3961,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>136.9505762815748</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4040,7 +4040,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>230.1678826089946</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>86.20228614855912</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>20.73696989209195</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>839.7357219218454</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>805.6336531456727</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>914.6089660449919</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>861.9948883663492</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.797825151298</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.77142073759</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.14448398095</v>
+        <v>860.4931884360099</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>826.3911196598373</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>794.5217388746859</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>764.7873980733851</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>740.960372522997</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.397026790869</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1899.780076724695</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.751429465681</v>
+        <v>1494.924622135729</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.649370085396</v>
+        <v>1075.782158715039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.403650425453</v>
+        <v>882.7523548805136</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947.4105542393174</v>
+        <v>900.9284236664082</v>
       </c>
       <c r="C7" t="n">
-        <v>774.8488427225424</v>
+        <v>728.3667121496331</v>
       </c>
       <c r="D7" t="n">
-        <v>608.9708499240651</v>
+        <v>562.4887193511559</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>392.7307156018932</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>216.0236615636494</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2402.973381028047</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2124.540380281152</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1837.584872151583</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.040598310784</v>
+        <v>1565.558467737875</v>
       </c>
       <c r="X7" t="n">
-        <v>1366.648843644196</v>
+        <v>1320.166713071287</v>
       </c>
       <c r="Y7" t="n">
-        <v>1139.229172958305</v>
+        <v>1092.747042385395</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8932738874814</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>423.987815023316</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>370.426448671627</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1528.02936532736</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1004.396078001584</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>599.5406234126169</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>180.3981599919276</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.1524403319851</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1032.553386008951</v>
+        <v>790.1610481280939</v>
       </c>
       <c r="C10" t="n">
-        <v>859.9916744921758</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1451.79167541383</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1224.372004727938</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2006.146234892153</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.5429130934994</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C13" t="n">
-        <v>748.9812015767243</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D13" t="n">
-        <v>583.1032087782471</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E13" t="n">
-        <v>413.3452050289843</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F13" t="n">
-        <v>236.6381509907405</v>
+        <v>297.2507130099916</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907405</v>
+        <v>131.6594380358193</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>131.6594380358193</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2669.467316876684</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2423.587870455139</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2145.154869708244</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.199361578674</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.172957164966</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.781202498378</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.361531812486</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580462</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745697</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.84397037279</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.677328997526</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1990.534856180949</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1554.625071355394</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510148</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068554</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941593</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.877891258609</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.260941192436</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3682.405486603469</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3263.26302318278</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2854.976899482434</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.6593645443552</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>614.0976530275801</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>448.2196602291028</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>278.4616564798401</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>278.4616564798401</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>112.8703815056677</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251574</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.271321159099</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.31581302953</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615821</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.897653949234</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.4779832633424</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957672</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789921</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>777.0165135789921</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>607.2585098297293</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>430.5514557914855</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674088</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300484</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6385,49 +6385,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066082</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745692</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477107</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309356</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324582</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831955</v>
+        <v>639.8357598467128</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>463.128705808469</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>297.5374308342967</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6707,13 +6707,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1454.96690046523</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,22 +7181,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937636</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>754.5060651663889</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>588.6280723679116</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127508</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638994</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822417</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996862</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155157</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>700.8370285643646</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163888</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734194</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.17464056759</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526186</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244938</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824249</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271528</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>671.27392107789</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2436.124831837456</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.691831090562</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.736322960992</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1598.709918547284</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2639626146351</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928798</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245815</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179641</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.036899590675</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.8119928040995</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C46" t="n">
-        <v>784.8119928040995</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>618.9340000056222</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>449.1759962563596</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>272.4689422181157</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>272.4689422181157</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.050282208978</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.6306115230866</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741964</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457101</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504349</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.835035322636</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>267.5985112554904</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>58.66873794568215</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>114.1599680048242</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.9863699957312</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>95.57977453680579</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>124.3589898130755</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.20415515853254</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627221</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>32.95267764171878</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.1344859240869</v>
+        <v>39.52293549722782</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>135.3636110865058</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.20338164068218</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308167807</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>144.1344859240862</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>88.194897697458</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>184.7831561774878</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>52.30086641797009</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>248.5691704774794</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>527736.3936819416</v>
+        <v>534077.5548935792</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>527736.3936819416</v>
+        <v>535219.294916542</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518931.8091315312</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>518931.8091315312</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>526254.4416462163</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>540831.3244696148</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540831.3244696149</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>533508.6919549298</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518931.8091315313</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
+        <v>428917.8559123267</v>
+      </c>
+      <c r="D2" t="n">
         <v>428917.8559123268</v>
       </c>
-      <c r="D2" t="n">
-        <v>428917.8559123269</v>
-      </c>
       <c r="E2" t="n">
-        <v>404419.1183773411</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="F2" t="n">
-        <v>404419.1183773412</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.865456011</v>
+        <v>421486.067309882</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.0673098818</v>
+        <v>421486.067309882</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="J2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="K2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="L2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="M2" t="n">
+        <v>421486.0673098818</v>
+      </c>
+      <c r="N2" t="n">
         <v>421486.0673098819</v>
       </c>
-      <c r="N2" t="n">
-        <v>421486.0673098818</v>
-      </c>
       <c r="O2" t="n">
-        <v>415779.3202312122</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="P2" t="n">
-        <v>404419.1183773411</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996332</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947851</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960743</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
-        <v>40014.57594554743</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
@@ -26439,25 +26439,25 @@
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
+        <v>41122.95192991271</v>
+      </c>
+      <c r="O4" t="n">
         <v>41122.95192991272</v>
       </c>
-      <c r="O4" t="n">
-        <v>40566.16416397271</v>
-      </c>
       <c r="P4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.95192991272</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39737.2340595813</v>
+        <v>39737.23405958125</v>
       </c>
       <c r="C6" t="n">
-        <v>181928.5347192911</v>
+        <v>143638.7094145231</v>
       </c>
       <c r="D6" t="n">
-        <v>181928.5347192913</v>
+        <v>203793.9885616816</v>
       </c>
       <c r="E6" t="n">
-        <v>57086.96589804883</v>
+        <v>120266.5432137442</v>
       </c>
       <c r="F6" t="n">
-        <v>291441.9879200862</v>
+        <v>302621.652434794</v>
       </c>
       <c r="G6" t="n">
-        <v>288858.733667371</v>
+        <v>302621.6524347941</v>
       </c>
       <c r="H6" t="n">
-        <v>290242.1217942132</v>
+        <v>302621.6524347941</v>
       </c>
       <c r="I6" t="n">
-        <v>302644.8767741767</v>
+        <v>302621.6524347939</v>
       </c>
       <c r="J6" t="n">
-        <v>191630.4114291865</v>
+        <v>191607.1870898037</v>
       </c>
       <c r="K6" t="n">
-        <v>302644.8767741767</v>
+        <v>249575.7977960215</v>
       </c>
       <c r="L6" t="n">
-        <v>302644.8767741766</v>
+        <v>293229.3507081716</v>
       </c>
       <c r="M6" t="n">
-        <v>107043.6974911089</v>
+        <v>150421.4814968062</v>
       </c>
       <c r="N6" t="n">
-        <v>302644.8767741765</v>
+        <v>302621.652434794</v>
       </c>
       <c r="O6" t="n">
-        <v>298898.9199840415</v>
+        <v>302621.652434794</v>
       </c>
       <c r="P6" t="n">
-        <v>291441.9879200862</v>
+        <v>302621.652434794</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760661</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>106.4730705056278</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>352.1153255614868</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>130.6299703702941</v>
       </c>
       <c r="V4" t="n">
-        <v>67.8842041684461</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>60.32271119795615</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>213.1037566671627</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>125.9611629959827</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>185.0147369176343</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>83.94149472053164</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>230.4432915973129</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>26.99333424003495</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>79.6439587724936</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741964</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457101</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,16 +35808,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080451</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504349</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080413</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,10 +36285,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956047</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960997</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,16 +37075,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.835035322636</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
